--- a/SUSPENDER (version 1).xlsb.xlsx
+++ b/SUSPENDER (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Servicio al Cliente\Downloads\Mora\Mora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADAA6D-5F48-4A36-8B8C-313FF32A6ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757DEC0B-0927-4340-A2AA-661ADCA4D635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96D49413-507F-423F-95B6-C78EBA344D61}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="819">
   <si>
     <t>N° Abonado</t>
   </si>
@@ -2915,7 +2915,7 @@
   <dimension ref="A1:N362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5889,45 +5889,47 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="69" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>1917</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="8">
         <v>15924755</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="8">
         <v>57000</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="8">
         <v>57000</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="14">
         <v>3126656075</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="G69" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="L69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N69" s="6" t="e">
+      <c r="L69" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M69" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N69" s="11" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SUSPENDER (version 1).xlsb.xlsx
+++ b/SUSPENDER (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Servicio al Cliente\Downloads\Mora\Mora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57320\Documents\GitHub\Mora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757DEC0B-0927-4340-A2AA-661ADCA4D635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D74322-5486-47BF-A077-1208795C45CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96D49413-507F-423F-95B6-C78EBA344D61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96D49413-507F-423F-95B6-C78EBA344D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$362</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2561,7 +2552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2598,6 +2589,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2912,16 +2910,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2BE2AE-408A-4543-B17A-0BE1D67930BA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="13" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="38.7109375" customWidth="1"/>
@@ -2972,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>326</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3758</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>803</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2265</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3631</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1894</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>3598</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>776</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>3706</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3640</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>915</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1841</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2038</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>3699</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3637</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1077</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>9</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>29</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>643</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>157</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>274</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>275</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>771</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>790</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -4067,51 +4066,51 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>12</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="16">
         <v>1059697436</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="16">
         <v>57000</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="16">
         <v>57000</v>
       </c>
-      <c r="F27" s="14">
-        <v>3165715733</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="17">
+        <v>44266</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>16</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>20</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>64</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>98</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>101</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>105</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>119</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>131</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>156</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>186</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>193</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>202</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>262</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>269</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>295</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>305</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>318</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>328</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>337</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>497</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>791</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>804</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>814</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>817</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>819</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>829</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>841</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>861</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>1005</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>1800</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>1803</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>1805</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>1818</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="19" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>1835</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>1836</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1846</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>1864</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>1876</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>1884</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>1890</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>1915</v>
       </c>
@@ -5889,51 +5888,51 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+    <row r="69" spans="1:14" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
         <v>1917</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="26">
         <v>15924755</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="26">
         <v>57000</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="26">
         <v>57000</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="27">
         <v>3126656075</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="28" t="s">
         <v>814</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="10" t="s">
+      <c r="H69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="L69" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M69" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N69" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L69" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M69" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N69" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2183</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>703</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>116</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>905</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1224</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1080</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>509</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>351</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>902</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>964</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1091</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>1300</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>58</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>187</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>258</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>309</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>349</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>358</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>359</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>362</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>374</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>396</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>413</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>416</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>442</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>447</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>472</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>477</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>480</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>486</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>518</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>549</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>559</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>563</v>
       </c>
@@ -7361,7 +7360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>583</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>604</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>635</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>642</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>151</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>648</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>659</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>667</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>668</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>674</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>683</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>698</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>701</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>710</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>730</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>739</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>745</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>752</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>784</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>811</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>924</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>932</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>959</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1018</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1036</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1064</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1079</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1082</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1110</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1130</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>1138</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>1145</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>1152</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1153</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1245</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1249</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1253</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1260</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>1270</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1282</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>1298</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1303</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>1328</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1387</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>1417</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>1418</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>1419</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>1457</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <v>1491</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1492</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>1520</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1523</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>1531</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1538</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>1692</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1771</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>1780</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>1791</v>
       </c>
@@ -9799,7 +9798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1814</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>1829</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1832</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <v>1834</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1839</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>1861</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>1879</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1995</v>
       </c>
@@ -10135,7 +10134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>2039</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>1603</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1744</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>1965</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>2138</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>3131</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>1226</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>1588</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1600</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1606</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>1619</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16">
         <v>1622</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1624</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>1625</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>1639</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>1686</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16">
         <v>1701</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="16">
         <v>1708</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1713</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>1717</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1735</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>1737</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1776</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1944</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>1955</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>1958</v>
       </c>
@@ -11227,7 +11226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>1975</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>1977</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>1983</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>2008</v>
       </c>
@@ -11395,7 +11394,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>2020</v>
       </c>
@@ -11437,7 +11436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2021</v>
       </c>
@@ -11479,7 +11478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2045</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16">
         <v>2055</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2058</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2066</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2080</v>
       </c>
@@ -11689,7 +11688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2102</v>
       </c>
@@ -11731,7 +11730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2105</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2119</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2131</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>2153</v>
       </c>
@@ -11899,7 +11898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2154</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2160</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>2164</v>
       </c>
@@ -12025,7 +12024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2175</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="16">
         <v>2185</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>2217</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2236</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>2256</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>2261</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>3114</v>
       </c>
@@ -12319,7 +12318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>3137</v>
       </c>
@@ -12361,7 +12360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>3139</v>
       </c>
@@ -12403,7 +12402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>3156</v>
       </c>
@@ -12445,7 +12444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16">
         <v>3163</v>
       </c>
@@ -12487,7 +12486,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>3177</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>3211</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>3218</v>
       </c>
@@ -12613,7 +12612,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>3252</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>3281</v>
       </c>
@@ -12697,7 +12696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="16">
         <v>3287</v>
       </c>
@@ -12739,7 +12738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>3310</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>3341</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>3360</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>3382</v>
       </c>
@@ -12907,7 +12906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>3389</v>
       </c>
@@ -12949,7 +12948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>3410</v>
       </c>
@@ -12991,7 +12990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>3420</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3443</v>
       </c>
@@ -13075,7 +13074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>3457</v>
       </c>
@@ -13117,7 +13116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16">
         <v>3562</v>
       </c>
@@ -13159,7 +13158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>917</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>1574</v>
       </c>
@@ -13243,7 +13242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>1607</v>
       </c>
@@ -13285,7 +13284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>3013</v>
       </c>
@@ -13327,7 +13326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>3577</v>
       </c>
@@ -13369,7 +13368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>430</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>3578</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>3582</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3611</v>
       </c>
@@ -13537,7 +13536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>910</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>1023</v>
       </c>
@@ -13621,7 +13620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>1058</v>
       </c>
@@ -13663,7 +13662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>1180</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>1185</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>1263</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>1383</v>
       </c>
@@ -13831,7 +13830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>1407</v>
       </c>
@@ -13873,7 +13872,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>1774</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="16">
         <v>1810</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16">
         <v>3510</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>1605</v>
       </c>
@@ -14041,7 +14040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>1649</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2005</v>
       </c>
@@ -14125,7 +14124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>2006</v>
       </c>
@@ -14167,7 +14166,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>2076</v>
       </c>
@@ -14209,7 +14208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>2234</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>3103</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>3104</v>
       </c>
@@ -14335,7 +14334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>3109</v>
       </c>
@@ -14377,7 +14376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>3146</v>
       </c>
@@ -14419,7 +14418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>3180</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>3332</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>3370</v>
       </c>
@@ -14545,7 +14544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>3380</v>
       </c>
@@ -14587,7 +14586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>3412</v>
       </c>
@@ -14629,7 +14628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>3435</v>
       </c>
@@ -14671,7 +14670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>3487</v>
       </c>
@@ -14713,7 +14712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>1047</v>
       </c>
@@ -14755,7 +14754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>3733</v>
       </c>
@@ -14797,7 +14796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>3594</v>
       </c>
@@ -14839,7 +14838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>3615</v>
       </c>
@@ -14881,7 +14880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>62</v>
       </c>
@@ -14923,7 +14922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>3547</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>1855</v>
       </c>
@@ -15007,7 +15006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>2022</v>
       </c>
@@ -15049,7 +15048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>3387</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="16">
         <v>946</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>1016</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>1243</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>1826</v>
       </c>
@@ -15259,7 +15258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>1851</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>2000</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>1687</v>
       </c>
@@ -15385,7 +15384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>496</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>510</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>1083</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>1581</v>
       </c>
@@ -15553,7 +15552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>1942</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>1393</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>33</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>132</v>
       </c>
@@ -15721,7 +15720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>735</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>1643</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>1688</v>
       </c>
@@ -15847,7 +15846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>653</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>3</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>664</v>
       </c>
@@ -15973,7 +15972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>813</v>
       </c>
@@ -16015,7 +16014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>3535</v>
       </c>
@@ -16057,7 +16056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>3527</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>1214</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>160</v>
       </c>
@@ -16183,7 +16182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>312</v>
       </c>
@@ -16225,7 +16224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>1394</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>4</v>
       </c>
@@ -16309,7 +16308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>65</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>347</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>934</v>
       </c>
@@ -16435,7 +16434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>1050</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>1871</v>
       </c>
@@ -16519,7 +16518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>555</v>
       </c>
@@ -16561,7 +16560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>1004</v>
       </c>
@@ -16603,7 +16602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>1034</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>1208</v>
       </c>
@@ -16687,7 +16686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>1262</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>51</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>888</v>
       </c>
@@ -16813,7 +16812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="16">
         <v>916</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>1169</v>
       </c>
@@ -16897,7 +16896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>1190</v>
       </c>
@@ -16939,7 +16938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>1440</v>
       </c>
@@ -16981,7 +16980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>1454</v>
       </c>
@@ -17023,7 +17022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>1472</v>
       </c>
@@ -17065,7 +17064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>1775</v>
       </c>
@@ -17107,7 +17106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>1743</v>
       </c>
@@ -17149,7 +17148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>1951</v>
       </c>
@@ -17191,7 +17190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>1659</v>
       </c>
@@ -17233,7 +17232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>1734</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>1765</v>
       </c>
@@ -17317,7 +17316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>2167</v>
       </c>
@@ -17359,7 +17358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>2230</v>
       </c>
@@ -17401,7 +17400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>3189</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>3227</v>
       </c>
@@ -17485,7 +17484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>3256</v>
       </c>
@@ -17527,7 +17526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>3375</v>
       </c>
@@ -17569,7 +17568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>3291</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>900</v>
       </c>
@@ -17653,7 +17652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>950</v>
       </c>
@@ -17695,7 +17694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>1825</v>
       </c>
@@ -17737,7 +17736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>2161</v>
       </c>
@@ -17779,7 +17778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>1631</v>
       </c>
@@ -17821,7 +17820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>1893</v>
       </c>
@@ -17863,7 +17862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>3244</v>
       </c>
@@ -17905,7 +17904,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>938</v>
       </c>
@@ -17947,7 +17946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>3024</v>
       </c>
@@ -17989,7 +17988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>1808</v>
       </c>
@@ -18031,7 +18030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>2106</v>
       </c>
@@ -18073,7 +18072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>3346</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>1127</v>
       </c>
@@ -18157,7 +18156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>1116</v>
       </c>
@@ -18199,7 +18198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>1632</v>
       </c>
@@ -18243,6 +18242,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N362" xr:uid="{B21301C6-1447-4BC8-AD8C-389037F5332E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CARLOS ANDRES MAPURA BUENO"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:N108">
       <sortCondition descending="1" ref="C1:C362"/>
     </sortState>
